--- a/Document/DPV.FL/Anatoli Cloud's Feature's list.xlsx
+++ b/Document/DPV.FL/Anatoli Cloud's Feature's list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ردیف</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>Cloud دارای ماژول سرویس بروزرسانی نرم افزار میباشد.</t>
+  </si>
+  <si>
+    <t>مدیریت کاربر</t>
+  </si>
+  <si>
+    <t>اطلاع رسانی - پیغام ها</t>
+  </si>
+  <si>
+    <t>ثبت فعالیتها</t>
+  </si>
+  <si>
+    <t>مسیریابی</t>
+  </si>
+  <si>
+    <t>بروزرسانی نرم افزارها</t>
   </si>
 </sst>
 </file>
@@ -478,7 +493,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -572,7 +587,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
@@ -588,7 +605,9 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="16" t="s">
         <v>10</v>
       </c>
@@ -604,7 +623,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
@@ -620,7 +641,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
@@ -636,7 +659,9 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>

--- a/Document/DPV.FL/Anatoli Cloud's Feature's list.xlsx
+++ b/Document/DPV.FL/Anatoli Cloud's Feature's list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ردیف</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>بروزرسانی نرم افزارها</t>
+  </si>
+  <si>
+    <t>مسیریابی - ثبت فعالیتها</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,16 +157,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -176,9 +170,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
@@ -490,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -521,10 +512,10 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
@@ -539,14 +530,16 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -555,14 +548,16 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -571,14 +566,16 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -587,16 +584,16 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -605,16 +602,16 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -623,16 +620,16 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -641,16 +638,16 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -659,526 +656,19 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="6">
-        <f ca="1">C3:C45</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
